--- a/RODRIGUEZ, JOSEHINE.xlsx
+++ b/RODRIGUEZ, JOSEHINE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534DC76F-18FB-42EF-9447-E98C55167335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F239F83-BD7F-4792-AD74-6AA115DA079F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -29,20 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -243,6 +235,9 @@
   </si>
   <si>
     <t>12/23-29/2022</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1247,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1268,7 +1263,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A89" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
+      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1429,7 +1424,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>293.75</v>
+        <v>294.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3243,13 +3238,13 @@
         <v>44896</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C98" s="13">
         <v>1.25</v>
       </c>
       <c r="D98" s="40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
